--- a/Competition/data/Buildings.xlsx
+++ b/Competition/data/Buildings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pytorch\Competition\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C556AD2-1389-42DF-8726-A595845EADCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64CCD77-0E65-44C6-B61C-770C634AA6F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="1872" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5172" yWindow="3204" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
   <si>
     <r>
       <rPr>
@@ -150,6 +150,10 @@
   </si>
   <si>
     <t>营房T15</t>
+  </si>
+  <si>
+    <t>idx_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -193,7 +197,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -216,11 +220,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -229,6 +244,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -509,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -520,7 +538,7 @@
     <col min="5" max="5" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -536,8 +554,11 @@
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -553,8 +574,11 @@
       <c r="E2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -570,8 +594,11 @@
       <c r="E3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -587,8 +614,11 @@
       <c r="E4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -604,8 +634,11 @@
       <c r="E5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -621,8 +654,11 @@
       <c r="E6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -638,8 +674,11 @@
       <c r="E7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -655,8 +694,11 @@
       <c r="E8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -672,8 +714,11 @@
       <c r="E9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -689,8 +734,11 @@
       <c r="E10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -706,8 +754,11 @@
       <c r="E11" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -723,8 +774,11 @@
       <c r="E12" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -740,8 +794,11 @@
       <c r="E13" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -757,8 +814,11 @@
       <c r="E14" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -774,8 +834,11 @@
       <c r="E15" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -791,8 +854,11 @@
       <c r="E16" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -808,8 +874,11 @@
       <c r="E17" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -825,8 +894,11 @@
       <c r="E18" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -842,8 +914,11 @@
       <c r="E19" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -859,8 +934,11 @@
       <c r="E20" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -876,8 +954,11 @@
       <c r="E21" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -893,8 +974,11 @@
       <c r="E22" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -910,8 +994,11 @@
       <c r="E23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -927,8 +1014,11 @@
       <c r="E24" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -944,8 +1034,11 @@
       <c r="E25" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -961,8 +1054,11 @@
       <c r="E26" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -978,8 +1074,11 @@
       <c r="E27" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -995,8 +1094,11 @@
       <c r="E28" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1012,8 +1114,11 @@
       <c r="E29" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1029,8 +1134,11 @@
       <c r="E30" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1045,6 +1153,9 @@
       </c>
       <c r="E31" t="s">
         <v>0</v>
+      </c>
+      <c r="F31">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Competition/data/Buildings.xlsx
+++ b/Competition/data/Buildings.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pytorch\Competition\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zzz\PycharmProject\gym_rl_learn\Competition\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64CCD77-0E65-44C6-B61C-770C634AA6F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5172" yWindow="3204" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="1872" windowWidth="17280" windowHeight="8964"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -159,7 +158,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -249,7 +248,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -526,11 +525,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1161,5 +1160,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Competition/data/Buildings.xlsx
+++ b/Competition/data/Buildings.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zzz\PycharmProject\gym_rl_learn\Competition\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pytorch\Competition\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24BCEAE-A1CD-4BAF-97EF-2BE074C6A339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="1872" windowWidth="17280" windowHeight="8964"/>
+    <workbookView xWindow="3840" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -158,7 +159,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -243,12 +244,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -525,11 +526,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
